--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2024.xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\4. Avdeling MHV\Luftovervåkning\Prosjekter\Rådata til interaktivt dashbord TFK (2025)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7942EDC3-90D1-401B-9799-8C4CE2DE5F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{7942EDC3-90D1-401B-9799-8C4CE2DE5F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375D788B-7D18-420D-8AE2-E83D528F46A8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="17640" xr2:uid="{14AC8EF9-A940-4DB2-B471-01A3488A98A4}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{14AC8EF9-A940-4DB2-B471-01A3488A98A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -922,11 +922,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF005FB-B405-4130-976E-0FD6591DAC7F}">
   <dimension ref="A1:T367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2024.xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/PM10 og NO2 døgn 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7942EDC3-90D1-401B-9799-8C4CE2DE5F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375D788B-7D18-420D-8AE2-E83D528F46A8}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{7942EDC3-90D1-401B-9799-8C4CE2DE5F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE93F4E-8866-4BD5-BAD0-AFF70FEDF4DF}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{14AC8EF9-A940-4DB2-B471-01A3488A98A4}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="43200" windowHeight="20985" xr2:uid="{14AC8EF9-A940-4DB2-B471-01A3488A98A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -922,15 +922,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF005FB-B405-4130-976E-0FD6591DAC7F}">
   <dimension ref="A1:T367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
